--- a/Documents/PRS_Project696.xlsx
+++ b/Documents/PRS_Project696.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyasd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/deep_vyas_ucalgary_ca/Documents/Masters Documets/University of Calagry Documents/Fall 21/SENG696_ABS/Project/Agent-Based-Covid19-Database-Management-System-main/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119994A0-AD90-4AD9-942A-88795D973666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{119994A0-AD90-4AD9-942A-88795D973666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26901BA3-BD8B-4D66-8CB6-999F090FB512}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{893CE6AF-1ED1-443E-B63F-2C605B0AAD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{893CE6AF-1ED1-443E-B63F-2C605B0AAD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Model" sheetId="1" r:id="rId1"/>
@@ -802,42 +802,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -868,6 +832,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,20 +882,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2526,8 +2526,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="7250492">
-          <a:off x="4526279" y="2797822"/>
-          <a:ext cx="600026" cy="3951616"/>
+          <a:off x="4512944" y="3045472"/>
+          <a:ext cx="632411" cy="3953521"/>
           <a:chOff x="3154720" y="2779790"/>
           <a:chExt cx="595298" cy="2409825"/>
         </a:xfrm>
@@ -2660,8 +2660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="20235609">
-          <a:off x="4820377" y="2374810"/>
-          <a:ext cx="424256" cy="3997942"/>
+          <a:off x="4824187" y="2494825"/>
+          <a:ext cx="422351" cy="4211302"/>
           <a:chOff x="5176438" y="2192816"/>
           <a:chExt cx="403605" cy="4001505"/>
         </a:xfrm>
@@ -2878,8 +2878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6236971" y="2934773"/>
-          <a:ext cx="6278882" cy="3077385"/>
+          <a:off x="6238876" y="3087173"/>
+          <a:ext cx="6273167" cy="3239310"/>
           <a:chOff x="3005734" y="3353308"/>
           <a:chExt cx="3240693" cy="3069041"/>
         </a:xfrm>
@@ -3403,9 +3403,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8088630" y="2895600"/>
-          <a:ext cx="304972" cy="2048965"/>
+        <a:xfrm>
+          <a:off x="8088630" y="3048000"/>
+          <a:ext cx="304972" cy="2153740"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3661,15 +3661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447678</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>466728</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134442</xdr:colOff>
+      <xdr:colOff>153492</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>98245</xdr:rowOff>
+      <xdr:rowOff>41095</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3684,9 +3684,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5932173" y="2933700"/>
-          <a:ext cx="2123259" cy="2047060"/>
-          <a:chOff x="5949449" y="2933700"/>
+          <a:off x="5953128" y="3028950"/>
+          <a:ext cx="2125164" cy="2155645"/>
+          <a:chOff x="5949449" y="2870148"/>
           <a:chExt cx="2105981" cy="2054680"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -3702,8 +3702,8 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7750458" y="2933700"/>
+          <a:xfrm rot="10800000">
+            <a:off x="7750458" y="2870148"/>
             <a:ext cx="304972" cy="2054680"/>
           </a:xfrm>
           <a:prstGeom prst="downArrow">
@@ -4617,145 +4617,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3D857-C8D3-4111-A384-B86BC319C77E}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="66.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -4764,7 +4764,7 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -4774,15 +4774,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4790,77 +4790,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -4869,7 +4869,7 @@
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -4879,15 +4879,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -4897,12 +4897,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A2:F6"/>
     <mergeCell ref="D15:E15"/>
@@ -4918,6 +4912,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4932,183 +4932,183 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:7" ht="91.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:7" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5133,187 +5133,187 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+    <row r="3" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5332,179 +5332,179 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" customWidth="1"/>
-    <col min="5" max="5" width="61.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:7" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="17" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:G6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5516,187 +5516,187 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/PRS_Project696.xlsx
+++ b/Documents/PRS_Project696.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/deep_vyas_ucalgary_ca/Documents/Masters Documets/University of Calagry Documents/Fall 21/SENG696_ABS/Project/Agent-Based-Covid19-Database-Management-System-main/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{119994A0-AD90-4AD9-942A-88795D973666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26901BA3-BD8B-4D66-8CB6-999F090FB512}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{119994A0-AD90-4AD9-942A-88795D973666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304FF1E4-A518-44B1-BB08-C7D9AB2BA935}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{893CE6AF-1ED1-443E-B63F-2C605B0AAD58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{893CE6AF-1ED1-443E-B63F-2C605B0AAD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Model" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Agent Model" sheetId="3" r:id="rId3"/>
     <sheet name="Service Model" sheetId="4" r:id="rId4"/>
     <sheet name="Acquaintance Model" sheetId="5" r:id="rId5"/>
+    <sheet name="Communication Protocol" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="153">
   <si>
     <t>Role Model</t>
   </si>
@@ -288,12 +289,252 @@
   <si>
     <t>Acquaintance Model</t>
   </si>
+  <si>
+    <t>Sender Agent ID</t>
+  </si>
+  <si>
+    <t>Receiver Agent ID</t>
+  </si>
+  <si>
+    <t>Command ID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commands </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UserData</t>
+  </si>
+  <si>
+    <t>ReportData</t>
+  </si>
+  <si>
+    <t>UserDataUpdate</t>
+  </si>
+  <si>
+    <t>UserDataAdd</t>
+  </si>
+  <si>
+    <t>UserDataRemove</t>
+  </si>
+  <si>
+    <t>GenerateReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent </t>
+  </si>
+  <si>
+    <t>Webportal Agent</t>
+  </si>
+  <si>
+    <t>SystemDatabaseAgent</t>
+  </si>
+  <si>
+    <t>AHSAdminAgent</t>
+  </si>
+  <si>
+    <t>UserAgent</t>
+  </si>
+  <si>
+    <t>Command Format</t>
+  </si>
+  <si>
+    <t>1Char</t>
+  </si>
+  <si>
+    <t>Xchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command Discription </t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>RequestData</t>
+  </si>
+  <si>
+    <t>"Name:HCNo"</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>SendData</t>
+  </si>
+  <si>
+    <t>"Name:HCNo:DOB:Address:Contact"</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>DataNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Command Decription </t>
+  </si>
+  <si>
+    <t>Command UserData</t>
+  </si>
+  <si>
+    <t>"Name:HCNo:DOB:Address:Contact" / ""</t>
+  </si>
+  <si>
+    <t>"2" / "3"</t>
+  </si>
+  <si>
+    <t>Webportal Agent -&gt; SystemDatabaseAgent/AHSAdminAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SystemDatabaseAgent/AHSAdminAgent-&gt;Webportal Agent</t>
+  </si>
+  <si>
+    <t>Command ReportData</t>
+  </si>
+  <si>
+    <t>"1" / "4"</t>
+  </si>
+  <si>
+    <t>"Name:HCNo:Dose1Type:Dose1Date:Dose1Address:Dose2Type:Dose2Date:Dose2Address" / ""</t>
+  </si>
+  <si>
+    <t>Webportal Agent/UserAgent -&gt; SystemDatabaseAgent/AHSAdminAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SystemDatabaseAgent/AHSAdminAgent-&gt;Webportal Agent/UserAgent</t>
+  </si>
+  <si>
+    <t>Command UserDataUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2" </t>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatabaseConnectionFailure </t>
+  </si>
+  <si>
+    <t>"0"/"1"/"2"</t>
+  </si>
+  <si>
+    <t>DataUpdateFailed</t>
+  </si>
+  <si>
+    <t>DataAddFailed</t>
+  </si>
+  <si>
+    <t>DataDeleteFailed</t>
+  </si>
+  <si>
+    <t>"0"/"1"/"2"/"3"</t>
+  </si>
+  <si>
+    <t>Command UserDataAdd</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"0"/"1"/"2"/"4"</t>
+  </si>
+  <si>
+    <t>Webportal Agent -&gt; SystemDatabaseAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SystemDatabaseAgent-&gt;Webportal Agent</t>
+  </si>
+  <si>
+    <t>Command UserDataDelete</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"0"/"1"/"2"/"5"</t>
+  </si>
+  <si>
+    <t>Command VaccineDataUpdate</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>VaccineDataUpdate</t>
+  </si>
+  <si>
+    <t>VaccineDataRemove</t>
+  </si>
+  <si>
+    <t>"Name:HCNo:Dose1Type:Dose1Date:Dose1Address:Dose2Type:Dose2Date:Dose2Address"</t>
+  </si>
+  <si>
+    <t>Command VaccineDataAdd</t>
+  </si>
+  <si>
+    <t>"2" /"3"</t>
+  </si>
+  <si>
+    <t>"7"</t>
+  </si>
+  <si>
+    <t>VaccineDataAdd</t>
+  </si>
+  <si>
+    <t>Command VaccineDataDelete</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>Command GenerateReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"4" </t>
+  </si>
+  <si>
+    <t>"9"</t>
+  </si>
+  <si>
+    <t>Webportal Agent -&gt; UserAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserAgent-&gt;Webportal Agent</t>
+  </si>
+  <si>
+    <t>"HexBytes of Generated PDF"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +557,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -779,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -843,16 +1098,35 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +1156,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -907,6 +1187,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2526,8 +2818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="7250492">
-          <a:off x="4512944" y="3045472"/>
-          <a:ext cx="632411" cy="3953521"/>
+          <a:off x="4533726" y="2775308"/>
+          <a:ext cx="590848" cy="3953521"/>
           <a:chOff x="3154720" y="2779790"/>
           <a:chExt cx="595298" cy="2409825"/>
         </a:xfrm>
@@ -2660,8 +2952,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="20235609">
-          <a:off x="4824187" y="2494825"/>
-          <a:ext cx="422351" cy="4211302"/>
+          <a:off x="4824187" y="2359743"/>
+          <a:ext cx="422351" cy="3982702"/>
           <a:chOff x="5176438" y="2192816"/>
           <a:chExt cx="403605" cy="4001505"/>
         </a:xfrm>
@@ -2878,8 +3170,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6238876" y="3087173"/>
-          <a:ext cx="6273167" cy="3239310"/>
+          <a:off x="6238876" y="2920918"/>
+          <a:ext cx="6273167" cy="3062665"/>
           <a:chOff x="3005734" y="3353308"/>
           <a:chExt cx="3240693" cy="3069041"/>
         </a:xfrm>
@@ -3571,7 +3863,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="1"/>
-            <a:t>RequestReportData</a:t>
+            <a:t>RequestUserData</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3684,8 +3976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5953128" y="3028950"/>
-          <a:ext cx="2125164" cy="2155645"/>
+          <a:off x="5953128" y="2873086"/>
+          <a:ext cx="2125164" cy="2030954"/>
           <a:chOff x="5949449" y="2870148"/>
           <a:chExt cx="2105981" cy="2054680"/>
         </a:xfrm>
@@ -4617,22 +4909,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3D857-C8D3-4111-A384-B86BC319C77E}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="3" max="3" width="78.109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="66.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="66.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4640,49 +4932,49 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4690,72 +4982,72 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -4764,7 +5056,7 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -4774,15 +5066,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4790,77 +5082,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -4869,7 +5161,7 @@
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -4879,15 +5171,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -4897,6 +5189,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A2:F6"/>
     <mergeCell ref="D15:E15"/>
@@ -4913,11 +5210,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4928,21 +5220,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC3793-D31D-4055-9142-DEC11223CACA}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4951,54 +5243,54 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5007,11 +5299,11 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
@@ -5028,11 +5320,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="91.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:7" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
@@ -5049,11 +5341,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:7" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
@@ -5070,11 +5362,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -5091,11 +5383,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
@@ -5129,16 +5421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64288B-6B61-4892-9933-B6A5E1787D45}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5163,134 +5455,134 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5328,20 +5620,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B69BEF-54A9-4BE0-B652-CF0C5D1FFFB3}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" customWidth="1"/>
+    <col min="5" max="5" width="61.44140625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5350,54 +5642,54 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5406,12 +5698,12 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="8" t="s">
         <v>53</v>
       </c>
@@ -5425,11 +5717,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="19" t="s">
         <v>61</v>
       </c>
@@ -5443,11 +5735,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="10" t="s">
         <v>64</v>
       </c>
@@ -5461,11 +5753,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:7" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
@@ -5479,11 +5771,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>68</v>
       </c>
@@ -5499,12 +5791,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:G6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5515,13 +5807,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C007F2-543C-44DB-8C69-FF72DD68BD26}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5546,134 +5838,134 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5703,6 +5995,3168 @@
     <mergeCell ref="A2:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E7FE5E-C09E-403B-8F59-C90C82CC1F3A}">
+  <dimension ref="A2:L191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="25">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="25">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="25">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="25">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="25"/>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="25">
+        <v>3</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>2</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>3</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
+        <v>4</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <v>5</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+      <c r="B51" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="27">
+        <v>6</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+      <c r="B59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="27">
+        <v>7</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="26"/>
+      <c r="B67" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="26"/>
+      <c r="B69" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="26"/>
+      <c r="B70" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="27">
+        <v>8</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="26"/>
+      <c r="B74" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="26"/>
+      <c r="B75" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="26"/>
+      <c r="B77" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="26"/>
+      <c r="B78" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
+        <v>9</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+      <c r="B82" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="29"/>
+      <c r="H82" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+      <c r="B83" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="54"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="24"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="24"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="24"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="24"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="24"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="24"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="24"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="24"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="24"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="24"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="24"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="24"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="24"/>
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="24"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="24"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="24"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="24"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B13:L14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="H82:L82"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>